--- a/medicine/Psychotrope/Aubun/Aubun.xlsx
+++ b/medicine/Psychotrope/Aubun/Aubun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'  aubun est un cépage de France de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aubun est probablement originaire du département de Vaucluse. Le cépage est recommandé ou autorisé dans la majorité des départements viticoles français (Ardèche, Aude, Aveyron, Corse, Gers, Gironde, Hérault, Landes, Loire-Atlantique, Lot, Lot-et-Garonne, Maine-et-Loire, Nièvre, Pyrénées Atlantiques, Pyrénées Orientales, Tarn-et-Garonne et Var). 
 Sa superficie en France est en régression, passant de 5 822 hectares en 1979 à 1 411 hectares en 2004.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les grappes sont moyennes ou assez grandes, cylindriques et compactes.
 Les baies sont de taille moyenne.
@@ -579,7 +595,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque : 25 jours après le chasselas.
 </t>
@@ -610,7 +628,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est vigoureux. Il est sensible à la coulure et au millerandage. Il présente une bonne résistance à l'oïdium, au mildiou, à la pourriture grise et aux gelées d’hiver.
 Deux clones ont été agréés : le clone 168 et le clone 350.
@@ -643,7 +663,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est également appelé carignan de Bedoin, carignan de Gigondas, counoise ou quenoise (par erreur car confondu avec la vraie counoise), grosse rogettaz, gueyne, morescola ou murescola (en Corse), moustardier ou moutardier.
 </t>
